--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1669646.032744331</v>
+        <v>-1672346.90146173</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>274.8412775925947</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>266.2037657195233</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>63.67384105310897</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.510643524569</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>23.55147521053277</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>109.4669394683029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>350.6295708944571</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>339.6826786843741</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.60641829405914</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1102,16 +1102,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>143.00850135061</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>67.5078866393233</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>332.4425444952122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>164.7531721172699</v>
       </c>
       <c r="W10" t="n">
-        <v>76.21491169801305</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>2.60701007315258</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>206.5512581543057</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>188.9440068174794</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>162.4077002759641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>38.7654355248925</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>169.0864095245671</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>140.307475200959</v>
+        <v>141.5017810206671</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002294</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541844</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1089.391082610344</v>
+        <v>1471.210842731383</v>
       </c>
       <c r="C2" t="n">
-        <v>1089.391082610344</v>
+        <v>1193.593390617651</v>
       </c>
       <c r="D2" t="n">
-        <v>731.1253840035938</v>
+        <v>835.3276920109005</v>
       </c>
       <c r="E2" t="n">
-        <v>731.1253840035938</v>
+        <v>835.3276920109005</v>
       </c>
       <c r="F2" t="n">
-        <v>320.1394792139862</v>
+        <v>835.3276920109005</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>419.6229417351893</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>115.5637977327596</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190807</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847236</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847236</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>1479.530414586156</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y2" t="n">
-        <v>1089.391082610344</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744482</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330614</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506776</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.961960783828</v>
+        <v>540.9789253056841</v>
       </c>
       <c r="C4" t="n">
-        <v>455.0257778559211</v>
+        <v>372.0427423777772</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0150268210029</v>
+        <v>221.9261029654415</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>221.9261029654415</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>75.03615546753116</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093918</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.171709964319</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W4" t="n">
-        <v>844.7545399273581</v>
+        <v>989.7610553472316</v>
       </c>
       <c r="X4" t="n">
-        <v>844.7545399273581</v>
+        <v>761.7715044492143</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.961960783828</v>
+        <v>540.9789253056841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1467.671350819694</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="C5" t="n">
-        <v>1467.671350819694</v>
+        <v>848.6672650551507</v>
       </c>
       <c r="D5" t="n">
-        <v>1109.405652212944</v>
+        <v>490.4015664484002</v>
       </c>
       <c r="E5" t="n">
-        <v>1109.405652212944</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>698.419747423336</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056586</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795506</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y5" t="n">
-        <v>1467.671350819694</v>
+        <v>1604.229622059684</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,37 +4632,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
-        <v>1977.748514897737</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.2777578464832</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="C7" t="n">
-        <v>541.2777578464832</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="D7" t="n">
-        <v>541.2777578464832</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
         <v>325.0883979303312</v>
@@ -4720,55 +4720,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1192.780934082657</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>903.6625965864952</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880306</v>
+        <v>903.6625965864952</v>
       </c>
       <c r="W7" t="n">
-        <v>990.0598878880306</v>
+        <v>903.6625965864952</v>
       </c>
       <c r="X7" t="n">
-        <v>762.0703369900133</v>
+        <v>675.6730456884778</v>
       </c>
       <c r="Y7" t="n">
-        <v>541.2777578464832</v>
+        <v>675.6730456884778</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522.010132800342</v>
+        <v>1257.650691388938</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.010132800342</v>
+        <v>888.6881744485261</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>530.4224758417756</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>530.4224758417756</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>119.4365710521681</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400157</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056586</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056586</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795506</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y8" t="n">
-        <v>1522.010132800342</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4869,37 +4869,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>114.5432626034355</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>299.2648838844854</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251077</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084328</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681273</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>939.770065904978</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8338829770711</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7172435647353</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,7 +4981,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
@@ -4990,22 +4990,22 @@
         <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093918</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093918</v>
+        <v>1144.466887211815</v>
       </c>
       <c r="W10" t="n">
-        <v>1167.759616802995</v>
+        <v>1144.466887211815</v>
       </c>
       <c r="X10" t="n">
-        <v>939.770065904978</v>
+        <v>916.4773363137979</v>
       </c>
       <c r="Y10" t="n">
-        <v>939.770065904978</v>
+        <v>695.6847571702677</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1368.154262550759</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1242.848833509951</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1014.859282611934</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>794.0667034684034</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.402603663004</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4664207350971</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>776.4664207350971</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>628.553327152704</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>481.6633796547936</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835331</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>651.5752442188632</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>503.6621506364701</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>356.7722031385597</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1767.492038892281</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.07486885532</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,13 +6242,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
         <v>620.8230468926974</v>
@@ -6379,55 +6379,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6455,49 +6455,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6610,16 +6610,16 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,7 +7421,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,19 +7570,19 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7658,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,31 +7822,31 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241565</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>14.25823202432741</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>6.454437538930208</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883071792</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>98.24448441976739</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039161</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>145.3439370534307</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>2.036071619361531</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>142.6707038555251</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.0084629450598</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>79.97174018228534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>97.57899151911155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.116438016304755</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>73.62417772602058</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>83.05123379926087</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>26.93934589766886</v>
+        <v>25.74504007796077</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045148</v>
+        <v>99467.00901045142</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26329,7 +26329,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="H2" t="n">
-        <v>121071.9899535008</v>
+        <v>121071.9899535009</v>
       </c>
       <c r="I2" t="n">
         <v>121071.9899535009</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41769.4092495929</v>
+        <v>41769.40924959295</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.42449670734</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707372</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707385</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707365</v>
-      </c>
       <c r="J4" t="n">
-        <v>6897.424496707371</v>
+        <v>6897.424496707319</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.2837598008</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980082</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980076</v>
       </c>
       <c r="N4" t="n">
+        <v>14888.2837598008</v>
+      </c>
+      <c r="O4" t="n">
         <v>14888.28375980082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980082</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1149991.956254906</v>
+        <v>-1150386.777196059</v>
       </c>
       <c r="C6" t="n">
+        <v>-101691.2337918272</v>
+      </c>
+      <c r="D6" t="n">
         <v>-101691.2337918271</v>
       </c>
-      <c r="D6" t="n">
-        <v>-101691.2337918272</v>
-      </c>
       <c r="E6" t="n">
-        <v>-494433.4059916591</v>
+        <v>-494468.1439170952</v>
       </c>
       <c r="F6" t="n">
-        <v>13052.03563288639</v>
+        <v>13017.29770745072</v>
       </c>
       <c r="G6" t="n">
-        <v>13052.03563288641</v>
+        <v>13017.29770745074</v>
       </c>
       <c r="H6" t="n">
-        <v>13052.03563288634</v>
+        <v>13017.29770745077</v>
       </c>
       <c r="I6" t="n">
-        <v>13052.03563288644</v>
+        <v>13017.29770745074</v>
       </c>
       <c r="J6" t="n">
-        <v>-154553.1421770962</v>
+        <v>-154587.8801025319</v>
       </c>
       <c r="K6" t="n">
-        <v>-14323.8521277056</v>
+        <v>-14323.85212770554</v>
       </c>
       <c r="L6" t="n">
-        <v>5103.865865926302</v>
+        <v>5103.865865926186</v>
       </c>
       <c r="M6" t="n">
-        <v>-127503.4278630003</v>
+        <v>-127503.4278630004</v>
       </c>
       <c r="N6" t="n">
-        <v>5103.865865926316</v>
+        <v>5103.865865926273</v>
       </c>
       <c r="O6" t="n">
         <v>5103.865865926273</v>
       </c>
       <c r="P6" t="n">
-        <v>-14323.8521277055</v>
+        <v>-14323.85212770551</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>90.43161417841287</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1048294936433365</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>142.7551248342714</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>31.30079917780466</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>71.86502408857984</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.82754435251003</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>77.74019464660191</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>344.0398161336307</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.79539416084134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>87.38447120655809</v>
       </c>
       <c r="W10" t="n">
-        <v>210.3080866385779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>675.952017818248</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932938</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O24" t="n">
-        <v>537.262354434964</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>537.262354434964</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>626.4629682828348</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>198.5607970756955</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620068</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000391</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>263.9377611478598</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>122.9351598697847</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>63.9358343792246</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>395.9248450576177</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000392</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>533.3557733738036</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>55.96455263125101</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>20.54758114884936</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O24" t="n">
-        <v>394.6661099905195</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>394.6661099905195</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>483.8667238383904</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>55.96455263125101</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
